--- a/Experiments/TODO_mod2/genex_mt_230517.xlsx
+++ b/Experiments/TODO_mod2/genex_mt_230517.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/TODO_isoforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/TODO_mod2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4741F1AA-E0F6-404C-A161-7C52D8979D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0036CD7B-249C-B347-B1BC-AAFE49C6EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1600" windowWidth="27640" windowHeight="16020" xr2:uid="{85595F43-DD4E-0A45-B616-9F7A51F40558}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>biotin</t>
   </si>
@@ -44,9 +44,6 @@
     <t>sds</t>
   </si>
   <si>
-    <t>glyA</t>
-  </si>
-  <si>
     <t>Pyc</t>
   </si>
   <si>
@@ -59,48 +56,9 @@
     <t>PLP</t>
   </si>
   <si>
-    <t>glyA_ctrl</t>
-  </si>
-  <si>
-    <t>glyA_buj</t>
-  </si>
-  <si>
-    <t>glyA_utr1</t>
-  </si>
-  <si>
-    <t>neg</t>
-  </si>
-  <si>
-    <t>glyA_Ht_buj</t>
-  </si>
-  <si>
-    <t>glyA_Ht_utr1</t>
-  </si>
-  <si>
-    <t>pyc_ctrl</t>
-  </si>
-  <si>
-    <t>pyc_aa</t>
-  </si>
-  <si>
-    <t>Pyc_Aa</t>
-  </si>
-  <si>
-    <t>mod3_1</t>
-  </si>
-  <si>
-    <t>mod3_1_new</t>
-  </si>
-  <si>
-    <t>mod1</t>
-  </si>
-  <si>
     <t>mod2</t>
   </si>
   <si>
-    <t>mod2_lplA</t>
-  </si>
-  <si>
     <t>gcvH_Dd</t>
   </si>
   <si>
@@ -113,9 +71,6 @@
     <t>lpd_Dd</t>
   </si>
   <si>
-    <t>lplA</t>
-  </si>
-  <si>
     <t>FAD</t>
   </si>
   <si>
@@ -125,16 +80,25 @@
     <t>mod2_cofactors</t>
   </si>
   <si>
-    <t>mod2_all</t>
-  </si>
-  <si>
-    <t>fch_v2</t>
-  </si>
-  <si>
-    <t>ftl_v2</t>
-  </si>
-  <si>
-    <t>mtdA_v2</t>
+    <t>fch</t>
+  </si>
+  <si>
+    <t>ftl</t>
+  </si>
+  <si>
+    <t>mtdA</t>
+  </si>
+  <si>
+    <t>lplA_Dd</t>
+  </si>
+  <si>
+    <t>mod2_glyA</t>
+  </si>
+  <si>
+    <t>mod2_glyA_cofactors</t>
+  </si>
+  <si>
+    <t>glyA_Ec</t>
   </si>
 </sst>
 </file>
@@ -486,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9378B801-CA57-D043-87AC-05445D6D4499}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R1"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,388 +461,178 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
       <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>27</v>
+      <c r="D2">
+        <v>1.5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
         <v>1.5</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
         <v>1.5</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>1.5</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="L5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-      <c r="E6">
-        <v>1.5</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <v>1.5</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>1.5</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1.2</v>
-      </c>
-      <c r="M8">
-        <v>1.2</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1.2</v>
-      </c>
-      <c r="M9">
-        <v>1.2</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10">
-        <v>1.2</v>
-      </c>
-      <c r="M10">
-        <v>1.2</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
     </row>
